--- a/docs/ModeloRelacional.xlsx
+++ b/docs/ModeloRelacional.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\2023-2\Sistemas Transaccionales\Proyecto1\Proyecto1-Grupo12\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B18786-3123-45BF-8247-B9A73E67FD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C2BE3-698E-475D-A75B-1B4A23764D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2510" yWindow="550" windowWidth="14400" windowHeight="7360" xr2:uid="{DB90BFBF-38DB-4D2D-912A-1201580DFD17}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DB90BFBF-38DB-4D2D-912A-1201580DFD17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ModeloRelacional" sheetId="1" r:id="rId1"/>
+    <sheet name="Normalizacion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,40 +37,481 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Relacion</t>
-  </si>
-  <si>
-    <t>At 3</t>
-  </si>
-  <si>
-    <t>At 4</t>
-  </si>
-  <si>
-    <t>At 1</t>
-  </si>
-  <si>
-    <t>At 2</t>
-  </si>
-  <si>
-    <t>Nombre relacion</t>
-  </si>
-  <si>
-    <t>Atributos/Dominio</t>
-  </si>
-  <si>
-    <t>Restricciones</t>
-  </si>
-  <si>
-    <t>Tuplas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+  <si>
+    <t>Nombre Relacion</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Atributos</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>tipo_documento</t>
+  </si>
+  <si>
+    <t>numero_documento</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>correo_electronico</t>
+  </si>
+  <si>
+    <t>tipoUsuario_id</t>
+  </si>
+  <si>
+    <t>reserva_id</t>
+  </si>
+  <si>
+    <t>Dominio</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>NN, ND</t>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idTiposUsuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idReservas</t>
+    </r>
+  </si>
+  <si>
+    <t>Tupla</t>
+  </si>
+  <si>
+    <t>cedula</t>
+  </si>
+  <si>
+    <t>miltonasasasas</t>
+  </si>
+  <si>
+    <t>aasdads@hotmail.com</t>
+  </si>
+  <si>
+    <t>TiposUsuario</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>Reservas</t>
+  </si>
+  <si>
+    <t>fecha_entrada</t>
+  </si>
+  <si>
+    <t>fecha_salida</t>
+  </si>
+  <si>
+    <t>numero_personas</t>
+  </si>
+  <si>
+    <t>check_in</t>
+  </si>
+  <si>
+    <t>check_out</t>
+  </si>
+  <si>
+    <t>planConsumo_id</t>
+  </si>
+  <si>
+    <t>habitacion_id</t>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idPlanesConsumo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idHabitaciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NN, ND</t>
+    </r>
+  </si>
+  <si>
+    <t>22-02-23</t>
+  </si>
+  <si>
+    <t>03-03-23</t>
+  </si>
+  <si>
+    <t>PlanesConsumo</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>descuento</t>
+  </si>
+  <si>
+    <t>precio_fijo</t>
+  </si>
+  <si>
+    <t>Todo Incluido</t>
+  </si>
+  <si>
+    <t>CheckIns</t>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idReservas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NN, ND</t>
+    </r>
+  </si>
+  <si>
+    <t>CheckOuts</t>
+  </si>
+  <si>
+    <t>Habitaciones</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>tipoHabitacion_id</t>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idTiposHabitacion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NN</t>
+    </r>
+  </si>
+  <si>
+    <t>Tipos_Habitacion</t>
+  </si>
+  <si>
+    <t>capacidad</t>
+  </si>
+  <si>
+    <t>precio_noche</t>
+  </si>
+  <si>
+    <t>Suite Presidencial</t>
+  </si>
+  <si>
+    <t>TiposHabitacion_Dotaciones</t>
+  </si>
+  <si>
+    <t>dotacion_id</t>
+  </si>
+  <si>
+    <r>
+      <t>PK, FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idDotaciones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK, FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idTiposHabitacion</t>
+    </r>
+  </si>
+  <si>
+    <t>Dotaciones</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>Televisor</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>incluido</t>
+  </si>
+  <si>
+    <t>caracteristica</t>
+  </si>
+  <si>
+    <t>tipoServicio_id</t>
+  </si>
+  <si>
+    <t>local_id</t>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idTiposServicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idLocales</t>
+    </r>
+  </si>
+  <si>
+    <t>hamburguesa</t>
+  </si>
+  <si>
+    <t>con papas y gaseosa</t>
+  </si>
+  <si>
+    <t>discoteca cristiana</t>
+  </si>
+  <si>
+    <t>Consumos_Servicios</t>
+  </si>
+  <si>
+    <t>servicio_id</t>
+  </si>
+  <si>
+    <t>fecha_consumo</t>
+  </si>
+  <si>
+    <r>
+      <t>PK, FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idHabitaciones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK, FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idServicios</t>
+    </r>
+  </si>
+  <si>
+    <t>02-03-23</t>
+  </si>
+  <si>
+    <t>Reservas_Servicios</t>
+  </si>
+  <si>
+    <t>fecha_reserva</t>
+  </si>
+  <si>
+    <t>Locales</t>
+  </si>
+  <si>
+    <t>ocupado</t>
+  </si>
+  <si>
+    <t>horario_servicio</t>
+  </si>
+  <si>
+    <t>TiposServicio</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Forma Normal</t>
+  </si>
+  <si>
+    <t>No deben existir atributos multivalor en la relacion, es decir, todos los atributos tienen dominios atomicos.</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Arreglo</t>
+  </si>
+  <si>
+    <t>Estado respecto al Modelo Relacional inicial</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>1FN</t>
+  </si>
+  <si>
+    <t>2FN</t>
+  </si>
+  <si>
+    <t>1FN hecha y no existen atributos no primos que dependan parcialmente de las llaves candidatas.</t>
+  </si>
+  <si>
+    <t>Explicacion</t>
+  </si>
+  <si>
+    <t>Todos los atributos de todas nuestras tablas pueden tener unicamente un solo valor, sujeto a constraints y los tipos de datos del UML.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En nuestro modelo Relacional establecimos que el ID fuera el unico atributo perteneciente a llaves candidatas. Esto es porque puede haber clientes con los mismos atributos, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +519,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,12 +581,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,51 +949,826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87AC834-B074-4D2B-A8C9-E3572B7FBDF1}">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="15.6328125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1005338335</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <v>487</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="5">
+        <v>301</v>
+      </c>
+      <c r="C30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="5">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="5">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="5">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="5">
+        <v>27</v>
+      </c>
+      <c r="C46" s="5">
+        <v>52000</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="5">
+        <v>301</v>
+      </c>
+      <c r="C50" s="5">
+        <v>27</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="5">
+        <v>301</v>
+      </c>
+      <c r="C54" s="5">
+        <v>27</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="5">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5">
+        <v>200</v>
+      </c>
+      <c r="D58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="5">
+        <v>2</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C22D04-C6DC-40AB-98D3-3C4AB0C94EA0}">
+  <dimension ref="B2:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="9"/>
+    <col min="2" max="2" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/ModeloRelacional.xlsx
+++ b/docs/ModeloRelacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\2023-2\Sistemas Transaccionales\Proyecto1\Proyecto1-Grupo12\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C2BE3-698E-475D-A75B-1B4A23764D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7C6E68-BA3E-4314-A988-58E3FDC62967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DB90BFBF-38DB-4D2D-912A-1201580DFD17}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
   <si>
     <t>Nombre Relacion</t>
   </si>
@@ -504,14 +504,58 @@
     <t>Todos los atributos de todas nuestras tablas pueden tener unicamente un solo valor, sujeto a constraints y los tipos de datos del UML.</t>
   </si>
   <si>
-    <t xml:space="preserve">En nuestro modelo Relacional establecimos que el ID fuera el unico atributo perteneciente a llaves candidatas. Esto es porque puede haber clientes con los mismos atributos, </t>
+    <t>3FN</t>
+  </si>
+  <si>
+    <t>2FN hecha y cada atributo no primo depende unicamente de las llaves candidata y no de otros atributos no primos (no hay dependencias transitivas no-primas)</t>
+  </si>
+  <si>
+    <t>Por el mismo motivo que el anterior, todas nuestros atributos no-primos dependen enteramente de la llave candidata (primaria) que en este caso es el ID de cada Relacion.</t>
+  </si>
+  <si>
+    <t>BCNF</t>
+  </si>
+  <si>
+    <t>Cada dependencia funcional debe tener como determinante una superllave.
+Si una tabla esta en 3FN y no tiene multiples llaves candidatas que se traslapan, esta por defecto en BCNF.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En nuestro modelo Relacional establecimos que el ID fuera el unico atributo perteneciente a llaves candidatas (y por ende, primarias). Esto es porque, por ejemplo, pueden haber clientes con exactamente los mismos atributos y solo los diferenciamos por el ID. 
+A pesar de que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es una practica terrible para el funcionamiento de la cadena de hotel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, en nuestro Proyecto lo implementamos de esta manera por motivos practicos y didacticos.
+En las Relaciones de Asociacion como Consumos, Reservaciones y Tienen. Todas las llaves son primarias. Por esto tambien se cumple la 2FN.</t>
+    </r>
+  </si>
+  <si>
+    <t>Por el mismo motivo, se concluye que el modelo cumple con el estandar BCNF.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +592,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -600,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,6 +701,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,9 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87AC834-B074-4D2B-A8C9-E3572B7FBDF1}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1666,73 +1743,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C22D04-C6DC-40AB-98D3-3C4AB0C94EA0}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="9"/>
-    <col min="2" max="2" width="15.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="4.7265625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="92.6328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:6" ht="34" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:6" ht="131.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E6" s="10"/>
+      <c r="C5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E7" s="10"/>
@@ -1772,5 +1881,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>